--- a/config_6.8/permission_server_config.xlsx
+++ b/config_6.8/permission_server_config.xlsx
@@ -14,7 +14,7 @@
     <sheet name="|备注" sheetId="9" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">act_permission!$A$1:$N$404</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">act_permission!$A$1:$N$405</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">condi!$A$1:$I$503</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -6976,7 +6976,7 @@
     <t>道具兑换（VIP2，非冲金鸡）</t>
   </si>
   <si>
-    <t>actp_own_task_txz</t>
+    <t>actp_own_task_p_txz</t>
   </si>
   <si>
     <t>通行证任务cps不显示</t>
@@ -8924,10 +8924,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -8994,11 +8994,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -9014,7 +9009,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9027,10 +9038,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9041,9 +9053,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9057,19 +9068,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9089,32 +9115,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9122,14 +9124,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9140,6 +9135,11 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="48">
@@ -9271,6 +9271,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -9289,7 +9331,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9301,103 +9397,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9409,13 +9415,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9459,13 +9459,47 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9485,41 +9519,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9533,26 +9537,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9562,10 +9562,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -9574,19 +9574,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -9595,115 +9595,115 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="38" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -10341,7 +10341,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A484" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B506" sqref="B506"/>
+      <selection pane="bottomLeft" activeCell="D498" sqref="D498"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -15411,7 +15411,7 @@
   <dimension ref="A1:O405"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D378" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="I378" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -29098,7 +29098,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N404">
+  <autoFilter ref="A1:N405">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -29113,11 +29113,11 @@
   <dimension ref="A1:I1084"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D1061" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C1073" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D1090" sqref="D1090"/>
+      <selection pane="bottomRight" activeCell="C1089" sqref="C1089"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/config_6.8/permission_server_config.xlsx
+++ b/config_6.8/permission_server_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -6492,7 +6492,7 @@
     <t>新人限时福利（冲金鸡）</t>
   </si>
   <si>
-    <t>actp_rank_hlly_018_hlbd_rank</t>
+    <t>actp_rank_zqdw_019_fqdr_rank</t>
   </si>
   <si>
     <t>游戏达人</t>
@@ -8859,8 +8859,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
@@ -8928,37 +8928,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8971,32 +8955,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9007,6 +8975,35 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9025,16 +9022,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -9058,7 +9047,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9071,9 +9060,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="48">
@@ -9199,43 +9199,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9253,49 +9247,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9313,19 +9271,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9343,19 +9349,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9393,30 +9393,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -9432,17 +9408,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9480,6 +9450,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -9490,16 +9475,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -9508,34 +9508,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -9544,100 +9544,100 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="47" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -10269,8 +10269,8 @@
   <sheetPr/>
   <dimension ref="A1:Q497"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A481" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A310" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A505" sqref="A505"/>
     </sheetView>
@@ -15286,12 +15286,12 @@
   <sheetPr/>
   <dimension ref="A1:O403"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D339" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D363" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G365" sqref="G365"/>
+      <selection pane="bottomRight" activeCell="D386" sqref="D386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/config_6.8/permission_server_config.xlsx
+++ b/config_6.8/permission_server_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5480" uniqueCount="2051">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5483" uniqueCount="2051">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -6821,7 +6821,7 @@
     <t>actp_rank_leijixiaohao_rank</t>
   </si>
   <si>
-    <t>达人榜（cjj和捕鱼奥秘不开启）</t>
+    <t>达人榜（cjj不开启）</t>
   </si>
   <si>
     <t>actp_own_task_p_xxl_rate_add</t>
@@ -8942,10 +8942,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -9012,10 +9012,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -9034,7 +9039,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9048,11 +9076,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9072,22 +9099,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="宋体"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9096,36 +9112,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9145,6 +9131,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -9154,7 +9147,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9289,7 +9289,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9301,7 +9337,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9313,85 +9391,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9415,31 +9421,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9492,11 +9492,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9510,17 +9516,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9557,20 +9557,20 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9580,10 +9580,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -9592,136 +9592,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="40" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="41" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -10359,7 +10359,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A475" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B505" sqref="B505"/>
+      <selection pane="bottomLeft" activeCell="A505" sqref="A505"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -15440,11 +15440,11 @@
   <dimension ref="A1:O406"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D378" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="F378" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D407" sqref="D407"/>
+      <selection pane="bottomRight" activeCell="K397" sqref="K397"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -28848,7 +28848,7 @@
       <c r="E397" s="30"/>
       <c r="F397" s="30"/>
       <c r="G397" s="30">
-        <v>338</v>
+        <v>497</v>
       </c>
       <c r="H397" s="7" t="b">
         <v>1</v>
@@ -29171,14 +29171,14 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I1086"/>
+  <dimension ref="A1:I1087"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E1064" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C1064" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F1086" sqref="F1086"/>
+      <selection pane="bottomRight" activeCell="B1097" sqref="B1097"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -55097,6 +55097,31 @@
         <v>1995</v>
       </c>
     </row>
+    <row r="1087" customFormat="1" spans="1:9">
+      <c r="A1087" s="21">
+        <v>1086</v>
+      </c>
+      <c r="B1087" s="16">
+        <v>497</v>
+      </c>
+      <c r="C1087" s="16" t="s">
+        <v>1673</v>
+      </c>
+      <c r="D1087" s="16" t="s">
+        <v>1751</v>
+      </c>
+      <c r="E1087" s="16">
+        <v>5</v>
+      </c>
+      <c r="F1087" s="16">
+        <v>1</v>
+      </c>
+      <c r="G1087" s="16" t="s">
+        <v>1910</v>
+      </c>
+      <c r="H1087" s="9"/>
+      <c r="I1087" s="9"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -55109,7 +55134,7 @@
   <sheetPr/>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>

--- a/config_6.8/permission_server_config.xlsx
+++ b/config_6.8/permission_server_config.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5483" uniqueCount="2051">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5483" uniqueCount="2052">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -8686,10 +8686,13 @@
     <t>Lv5以下才可以进入，请去高级场获取更多金币吧！</t>
   </si>
   <si>
-    <t>不是欢乐捕鱼CPL</t>
+    <t>不是天天欢乐捕鱼用户</t>
   </si>
   <si>
     <t>是IOS用户</t>
+  </si>
+  <si>
+    <t>是天天欢乐捕鱼用户</t>
   </si>
   <si>
     <t>捕鱼奥秘cpl</t>
@@ -8942,10 +8945,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -9012,19 +9015,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9038,25 +9066,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9068,8 +9082,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -9084,10 +9121,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9100,49 +9137,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9158,6 +9156,11 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="48">
@@ -9289,7 +9292,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9301,25 +9346,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9331,7 +9364,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9343,49 +9376,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9397,19 +9394,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9427,19 +9418,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9477,17 +9480,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9510,8 +9509,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9521,21 +9535,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9558,19 +9557,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9580,10 +9583,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -9592,136 +9595,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="41" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -29174,11 +29177,11 @@
   <dimension ref="A1:I1087"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C1064" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D1049" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B1097" sqref="B1097"/>
+      <selection pane="bottomRight" activeCell="E1063" sqref="E1063"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -54574,8 +54577,8 @@
       <c r="C1064" s="21" t="s">
         <v>1673</v>
       </c>
-      <c r="D1064" s="3" t="s">
-        <v>1975</v>
+      <c r="D1064" s="11" t="s">
+        <v>1969</v>
       </c>
       <c r="E1064" s="21">
         <v>5</v>
@@ -54620,8 +54623,8 @@
       <c r="C1066" s="21" t="s">
         <v>1673</v>
       </c>
-      <c r="D1066" s="3" t="s">
-        <v>1975</v>
+      <c r="D1066" s="11" t="s">
+        <v>1969</v>
       </c>
       <c r="E1066" s="21">
         <v>5</v>
@@ -54666,8 +54669,8 @@
       <c r="C1068" s="21" t="s">
         <v>1673</v>
       </c>
-      <c r="D1068" s="3" t="s">
-        <v>1975</v>
+      <c r="D1068" s="11" t="s">
+        <v>1969</v>
       </c>
       <c r="E1068" s="21">
         <v>2</v>
@@ -54676,7 +54679,7 @@
         <v>1</v>
       </c>
       <c r="G1068" s="21" t="s">
-        <v>1980</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="1069" spans="1:7">
@@ -54712,8 +54715,8 @@
       <c r="C1070" s="21" t="s">
         <v>1673</v>
       </c>
-      <c r="D1070" s="3" t="s">
-        <v>1975</v>
+      <c r="D1070" s="11" t="s">
+        <v>1969</v>
       </c>
       <c r="E1070" s="21">
         <v>2</v>
@@ -54722,7 +54725,7 @@
         <v>1</v>
       </c>
       <c r="G1070" s="21" t="s">
-        <v>1980</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="1071" spans="1:7">
@@ -54768,7 +54771,7 @@
         <v>1</v>
       </c>
       <c r="G1072" s="21" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="1073" spans="1:7">
@@ -54791,7 +54794,7 @@
         <v>2</v>
       </c>
       <c r="G1073" s="21" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="1074" spans="1:7">
@@ -54862,7 +54865,7 @@
         <v>1</v>
       </c>
       <c r="G1076" s="44" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="H1076" s="21"/>
       <c r="I1076" s="21"/>
@@ -54887,7 +54890,7 @@
         <v>1</v>
       </c>
       <c r="G1077" s="44" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="1078" spans="1:7">
@@ -54933,7 +54936,7 @@
         <v>1</v>
       </c>
       <c r="G1079" s="44" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="1080" spans="1:7">
@@ -54956,7 +54959,7 @@
         <v>1</v>
       </c>
       <c r="G1080" s="44" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="1081" spans="1:7">
@@ -54979,7 +54982,7 @@
         <v>1</v>
       </c>
       <c r="G1081" s="48" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="1082" spans="1:7">
@@ -54993,7 +54996,7 @@
         <v>1673</v>
       </c>
       <c r="D1082" s="11" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="E1082" s="21">
         <v>5</v>
@@ -55002,7 +55005,7 @@
         <v>1</v>
       </c>
       <c r="G1082" s="21" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="1083" spans="1:7">
@@ -55025,7 +55028,7 @@
         <v>1</v>
       </c>
       <c r="G1083" s="21" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="1084" spans="1:7">
@@ -55048,7 +55051,7 @@
         <v>1</v>
       </c>
       <c r="G1084" s="21" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="1085" spans="1:7">
@@ -55071,7 +55074,7 @@
         <v>1</v>
       </c>
       <c r="G1085" s="21" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="1086" spans="1:7">
@@ -55094,7 +55097,7 @@
         <v>1</v>
       </c>
       <c r="G1086" s="21" t="s">
-        <v>1995</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="1087" customFormat="1" spans="1:9">
@@ -55135,7 +55138,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -55154,7 +55157,7 @@
         <v>816</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1634</v>
@@ -55169,7 +55172,7 @@
         <v>1637</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -55183,7 +55186,7 @@
         <v>1729</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -55192,7 +55195,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -55206,7 +55209,7 @@
         <v>1729</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -55215,7 +55218,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>2001</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -55229,7 +55232,7 @@
         <v>1729</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -55238,7 +55241,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -55252,7 +55255,7 @@
         <v>1729</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -55261,7 +55264,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -55275,7 +55278,7 @@
         <v>1729</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -55284,7 +55287,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -55298,7 +55301,7 @@
         <v>1729</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -55307,7 +55310,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>2009</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -55321,7 +55324,7 @@
         <v>1729</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -55330,7 +55333,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>2011</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -55344,7 +55347,7 @@
         <v>1729</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -55353,7 +55356,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -55367,16 +55370,16 @@
         <v>1729</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>2015</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>2014</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>2013</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -55390,7 +55393,7 @@
         <v>1729</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -55399,7 +55402,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -55413,7 +55416,7 @@
         <v>1729</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -55422,7 +55425,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -55436,7 +55439,7 @@
         <v>1729</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -55445,7 +55448,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -55459,7 +55462,7 @@
         <v>1729</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -55468,7 +55471,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -55482,16 +55485,16 @@
         <v>1729</v>
       </c>
       <c r="D15" s="10" t="s">
+        <v>2023</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>2022</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>2021</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -55505,7 +55508,7 @@
         <v>1729</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -55514,7 +55517,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -55528,7 +55531,7 @@
         <v>1729</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -55537,7 +55540,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -55545,13 +55548,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>1729</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -55560,7 +55563,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>2028</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -55574,7 +55577,7 @@
         <v>1729</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -55583,7 +55586,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>2030</v>
+        <v>2031</v>
       </c>
     </row>
   </sheetData>
@@ -55611,13 +55614,13 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="27" customHeight="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -55633,10 +55636,10 @@
         <v>1654</v>
       </c>
       <c r="B2" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="3" ht="28.9" customHeight="1" spans="1:2">
@@ -55644,7 +55647,7 @@
         <v>1671</v>
       </c>
       <c r="B3" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="4" ht="22.15" customHeight="1" spans="1:2">
@@ -55652,7 +55655,7 @@
         <v>1669</v>
       </c>
       <c r="B4" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="5" ht="24.6" customHeight="1" spans="1:2">
@@ -55660,15 +55663,15 @@
         <v>1690</v>
       </c>
       <c r="B5" t="s">
-        <v>2038</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="6" ht="25.15" customHeight="1" spans="1:2">
       <c r="A6" t="s">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="B6" t="s">
-        <v>2040</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="7" ht="104.25" customHeight="1" spans="1:2">
@@ -55676,7 +55679,7 @@
         <v>1641</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>2041</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -55684,15 +55687,15 @@
         <v>1729</v>
       </c>
       <c r="B8" t="s">
-        <v>2042</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="1:2">
       <c r="A9" s="5" t="s">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>2044</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="1:3">
@@ -55700,10 +55703,10 @@
         <v>1678</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -55711,7 +55714,7 @@
         <v>1768</v>
       </c>
       <c r="B11" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -55719,10 +55722,10 @@
         <v>1773</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -55730,7 +55733,7 @@
         <v>1771</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
     </row>
   </sheetData>

--- a/config_6.8/permission_server_config.xlsx
+++ b/config_6.8/permission_server_config.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5483" uniqueCount="2052">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5495" uniqueCount="2056">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -8686,13 +8686,25 @@
     <t>Lv5以下才可以进入，请去高级场获取更多金币吧！</t>
   </si>
   <si>
-    <t>不是天天欢乐捕鱼用户</t>
+    <t>不是天天欢乐捕鱼</t>
+  </si>
+  <si>
+    <t>tag_plat_own_byam</t>
+  </si>
+  <si>
+    <t>捕鱼奥秘没有账号</t>
   </si>
   <si>
     <t>是IOS用户</t>
   </si>
   <si>
-    <t>是天天欢乐捕鱼用户</t>
+    <t>tag_plat_own_tthlby</t>
+  </si>
+  <si>
+    <t>天天欢乐捕鱼没有账号</t>
+  </si>
+  <si>
+    <t>是天天欢乐捕鱼</t>
   </si>
   <si>
     <t>捕鱼奥秘cpl</t>
@@ -8946,8 +8958,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
@@ -9014,14 +9026,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -9030,7 +9042,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9045,7 +9057,85 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9060,87 +9150,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9292,25 +9304,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9328,13 +9322,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9352,7 +9346,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9364,13 +9364,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9388,7 +9406,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9400,7 +9418,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9418,31 +9436,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9482,11 +9494,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9509,32 +9549,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9557,23 +9573,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9583,10 +9595,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -9595,16 +9607,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -9616,112 +9628,112 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
@@ -10362,7 +10374,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A475" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A505" sqref="A505"/>
+      <selection pane="bottomLeft" activeCell="C493" sqref="C493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -29174,14 +29186,14 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I1087"/>
+  <dimension ref="A1:I1091"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D1049" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E1055" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E1063" sqref="E1063"/>
+      <selection pane="bottomRight" activeCell="G1074" sqref="G1074"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -54577,7 +54589,7 @@
       <c r="C1064" s="21" t="s">
         <v>1673</v>
       </c>
-      <c r="D1064" s="11" t="s">
+      <c r="D1064" s="3" t="s">
         <v>1969</v>
       </c>
       <c r="E1064" s="21">
@@ -54597,11 +54609,11 @@
       <c r="B1065" s="21">
         <v>443</v>
       </c>
-      <c r="C1065" s="9" t="s">
-        <v>1936</v>
+      <c r="C1065" s="21" t="s">
+        <v>1641</v>
       </c>
       <c r="D1065" s="10" t="s">
-        <v>1939</v>
+        <v>1983</v>
       </c>
       <c r="E1065" s="21">
         <v>5</v>
@@ -54610,7 +54622,7 @@
         <v>1</v>
       </c>
       <c r="G1065" s="21" t="s">
-        <v>1978</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="1066" spans="1:7">
@@ -54618,13 +54630,13 @@
         <v>1065</v>
       </c>
       <c r="B1066" s="21">
-        <v>444</v>
-      </c>
-      <c r="C1066" s="21" t="s">
-        <v>1673</v>
-      </c>
-      <c r="D1066" s="11" t="s">
-        <v>1969</v>
+        <v>443</v>
+      </c>
+      <c r="C1066" s="9" t="s">
+        <v>1936</v>
+      </c>
+      <c r="D1066" s="10" t="s">
+        <v>1939</v>
       </c>
       <c r="E1066" s="21">
         <v>5</v>
@@ -54633,7 +54645,7 @@
         <v>1</v>
       </c>
       <c r="G1066" s="21" t="s">
-        <v>1982</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="1067" spans="1:7">
@@ -54643,20 +54655,20 @@
       <c r="B1067" s="21">
         <v>444</v>
       </c>
-      <c r="C1067" s="9" t="s">
-        <v>1936</v>
+      <c r="C1067" s="21" t="s">
+        <v>1641</v>
       </c>
       <c r="D1067" s="10" t="s">
-        <v>1939</v>
+        <v>1983</v>
       </c>
       <c r="E1067" s="21">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1067" s="21">
         <v>1</v>
       </c>
       <c r="G1067" s="21" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="1068" spans="1:7">
@@ -54664,22 +54676,22 @@
         <v>1067</v>
       </c>
       <c r="B1068" s="21">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C1068" s="21" t="s">
         <v>1673</v>
       </c>
-      <c r="D1068" s="11" t="s">
+      <c r="D1068" s="3" t="s">
         <v>1969</v>
       </c>
       <c r="E1068" s="21">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1068" s="21">
         <v>1</v>
       </c>
       <c r="G1068" s="21" t="s">
-        <v>1984</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="1069" spans="1:7">
@@ -54687,7 +54699,7 @@
         <v>1068</v>
       </c>
       <c r="B1069" s="21">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C1069" s="9" t="s">
         <v>1936</v>
@@ -54696,13 +54708,13 @@
         <v>1939</v>
       </c>
       <c r="E1069" s="21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1069" s="21">
         <v>1</v>
       </c>
       <c r="G1069" s="21" t="s">
-        <v>1978</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="1070" spans="1:7">
@@ -54710,22 +54722,22 @@
         <v>1069</v>
       </c>
       <c r="B1070" s="21">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C1070" s="21" t="s">
-        <v>1673</v>
-      </c>
-      <c r="D1070" s="11" t="s">
-        <v>1969</v>
+        <v>1641</v>
+      </c>
+      <c r="D1070" s="10" t="s">
+        <v>1986</v>
       </c>
       <c r="E1070" s="21">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1070" s="21">
         <v>1</v>
       </c>
       <c r="G1070" s="21" t="s">
-        <v>1984</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="1071" spans="1:7">
@@ -54733,13 +54745,13 @@
         <v>1070</v>
       </c>
       <c r="B1071" s="21">
-        <v>446</v>
-      </c>
-      <c r="C1071" s="9" t="s">
-        <v>1936</v>
-      </c>
-      <c r="D1071" s="10" t="s">
-        <v>1939</v>
+        <v>445</v>
+      </c>
+      <c r="C1071" s="21" t="s">
+        <v>1673</v>
+      </c>
+      <c r="D1071" s="3" t="s">
+        <v>1969</v>
       </c>
       <c r="E1071" s="21">
         <v>2</v>
@@ -54748,7 +54760,7 @@
         <v>1</v>
       </c>
       <c r="G1071" s="21" t="s">
-        <v>1983</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="1072" spans="1:7">
@@ -54756,22 +54768,22 @@
         <v>1071</v>
       </c>
       <c r="B1072" s="21">
-        <v>447</v>
-      </c>
-      <c r="C1072" s="21" t="s">
-        <v>1673</v>
-      </c>
-      <c r="D1072" s="11" t="s">
-        <v>1757</v>
+        <v>445</v>
+      </c>
+      <c r="C1072" s="9" t="s">
+        <v>1936</v>
+      </c>
+      <c r="D1072" s="10" t="s">
+        <v>1939</v>
       </c>
       <c r="E1072" s="21">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1072" s="21">
         <v>1</v>
       </c>
       <c r="G1072" s="21" t="s">
-        <v>1985</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="1073" spans="1:7">
@@ -54779,22 +54791,22 @@
         <v>1072</v>
       </c>
       <c r="B1073" s="21">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C1073" s="21" t="s">
-        <v>1673</v>
-      </c>
-      <c r="D1073" s="11" t="s">
-        <v>1979</v>
+        <v>1641</v>
+      </c>
+      <c r="D1073" s="10" t="s">
+        <v>1986</v>
       </c>
       <c r="E1073" s="21">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1073" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1073" s="21" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="1074" spans="1:7">
@@ -54802,178 +54814,178 @@
         <v>1073</v>
       </c>
       <c r="B1074" s="21">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C1074" s="21" t="s">
         <v>1673</v>
       </c>
-      <c r="D1074" s="11" t="s">
-        <v>1747</v>
+      <c r="D1074" s="3" t="s">
+        <v>1969</v>
       </c>
       <c r="E1074" s="21">
         <v>2</v>
       </c>
       <c r="F1074" s="21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G1074" s="21" t="s">
-        <v>1952</v>
-      </c>
-    </row>
-    <row r="1075" customFormat="1" spans="1:9">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:7">
       <c r="A1075" s="21">
         <v>1074</v>
       </c>
       <c r="B1075" s="21">
-        <v>448</v>
-      </c>
-      <c r="C1075" s="44" t="s">
-        <v>1673</v>
-      </c>
-      <c r="D1075" s="44" t="s">
-        <v>1751</v>
-      </c>
-      <c r="E1075" s="18">
-        <v>5</v>
-      </c>
-      <c r="F1075" s="18">
-        <v>1</v>
-      </c>
-      <c r="G1075" s="44" t="s">
-        <v>1964</v>
-      </c>
-      <c r="H1075" s="21"/>
-      <c r="I1075" s="21"/>
-    </row>
-    <row r="1076" customFormat="1" spans="1:9">
+        <v>446</v>
+      </c>
+      <c r="C1075" s="9" t="s">
+        <v>1936</v>
+      </c>
+      <c r="D1075" s="10" t="s">
+        <v>1939</v>
+      </c>
+      <c r="E1075" s="21">
+        <v>2</v>
+      </c>
+      <c r="F1075" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1075" s="21" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:7">
       <c r="A1076" s="21">
         <v>1075</v>
       </c>
       <c r="B1076" s="21">
-        <v>448</v>
-      </c>
-      <c r="C1076" s="44" t="s">
-        <v>1654</v>
-      </c>
-      <c r="D1076" s="18">
-        <v>2</v>
-      </c>
-      <c r="E1076" s="18">
-        <v>3</v>
-      </c>
-      <c r="F1076" s="18">
-        <v>1</v>
-      </c>
-      <c r="G1076" s="44" t="s">
-        <v>1987</v>
-      </c>
-      <c r="H1076" s="21"/>
-      <c r="I1076" s="21"/>
+        <v>447</v>
+      </c>
+      <c r="C1076" s="21" t="s">
+        <v>1673</v>
+      </c>
+      <c r="D1076" s="11" t="s">
+        <v>1757</v>
+      </c>
+      <c r="E1076" s="21">
+        <v>2</v>
+      </c>
+      <c r="F1076" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1076" s="21" t="s">
+        <v>1989</v>
+      </c>
     </row>
     <row r="1077" spans="1:7">
       <c r="A1077" s="21">
         <v>1076</v>
       </c>
-      <c r="B1077" s="1">
-        <v>489</v>
-      </c>
-      <c r="C1077" s="10" t="s">
-        <v>1654</v>
-      </c>
-      <c r="D1077" s="21">
-        <v>4</v>
+      <c r="B1077" s="21">
+        <v>447</v>
+      </c>
+      <c r="C1077" s="21" t="s">
+        <v>1673</v>
+      </c>
+      <c r="D1077" s="11" t="s">
+        <v>1979</v>
       </c>
       <c r="E1077" s="21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1077" s="21">
-        <v>1</v>
-      </c>
-      <c r="G1077" s="44" t="s">
-        <v>1988</v>
+        <v>2</v>
+      </c>
+      <c r="G1077" s="21" t="s">
+        <v>1990</v>
       </c>
     </row>
     <row r="1078" spans="1:7">
       <c r="A1078" s="21">
         <v>1077</v>
       </c>
-      <c r="B1078" s="1">
-        <v>490</v>
-      </c>
-      <c r="C1078" s="10" t="s">
-        <v>1654</v>
-      </c>
-      <c r="D1078" s="21">
+      <c r="B1078" s="21">
+        <v>447</v>
+      </c>
+      <c r="C1078" s="21" t="s">
+        <v>1673</v>
+      </c>
+      <c r="D1078" s="11" t="s">
+        <v>1747</v>
+      </c>
+      <c r="E1078" s="21">
+        <v>2</v>
+      </c>
+      <c r="F1078" s="21">
         <v>3</v>
       </c>
-      <c r="E1078" s="21">
-        <v>3</v>
-      </c>
-      <c r="F1078" s="21">
-        <v>1</v>
-      </c>
-      <c r="G1078" s="44" t="s">
-        <v>1971</v>
-      </c>
-    </row>
-    <row r="1079" spans="1:7">
+      <c r="G1078" s="21" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="1079" customFormat="1" spans="1:9">
       <c r="A1079" s="21">
         <v>1078</v>
       </c>
-      <c r="B1079" s="1">
-        <v>491</v>
-      </c>
-      <c r="C1079" s="10" t="s">
-        <v>1654</v>
-      </c>
-      <c r="D1079" s="21">
-        <v>2</v>
-      </c>
-      <c r="E1079" s="21">
-        <v>3</v>
-      </c>
-      <c r="F1079" s="21">
+      <c r="B1079" s="21">
+        <v>448</v>
+      </c>
+      <c r="C1079" s="44" t="s">
+        <v>1673</v>
+      </c>
+      <c r="D1079" s="44" t="s">
+        <v>1751</v>
+      </c>
+      <c r="E1079" s="18">
+        <v>5</v>
+      </c>
+      <c r="F1079" s="18">
         <v>1</v>
       </c>
       <c r="G1079" s="44" t="s">
-        <v>1987</v>
-      </c>
-    </row>
-    <row r="1080" spans="1:7">
+        <v>1964</v>
+      </c>
+      <c r="H1079" s="21"/>
+      <c r="I1079" s="21"/>
+    </row>
+    <row r="1080" customFormat="1" spans="1:9">
       <c r="A1080" s="21">
         <v>1079</v>
       </c>
-      <c r="B1080" s="1">
-        <v>492</v>
-      </c>
-      <c r="C1080" s="10" t="s">
+      <c r="B1080" s="21">
+        <v>448</v>
+      </c>
+      <c r="C1080" s="44" t="s">
         <v>1654</v>
       </c>
-      <c r="D1080" s="21">
-        <v>1</v>
-      </c>
-      <c r="E1080" s="21">
+      <c r="D1080" s="18">
+        <v>2</v>
+      </c>
+      <c r="E1080" s="18">
         <v>3</v>
       </c>
-      <c r="F1080" s="21">
+      <c r="F1080" s="18">
         <v>1</v>
       </c>
       <c r="G1080" s="44" t="s">
-        <v>1989</v>
-      </c>
+        <v>1991</v>
+      </c>
+      <c r="H1080" s="21"/>
+      <c r="I1080" s="21"/>
     </row>
     <row r="1081" spans="1:7">
       <c r="A1081" s="21">
         <v>1080</v>
       </c>
-      <c r="B1081" s="21">
-        <v>493</v>
-      </c>
-      <c r="C1081" s="48" t="s">
-        <v>1676</v>
+      <c r="B1081" s="1">
+        <v>489</v>
+      </c>
+      <c r="C1081" s="10" t="s">
+        <v>1654</v>
       </c>
       <c r="D1081" s="21">
-        <v>1623081600</v>
+        <v>4</v>
       </c>
       <c r="E1081" s="21">
         <v>3</v>
@@ -54981,77 +54993,77 @@
       <c r="F1081" s="21">
         <v>1</v>
       </c>
-      <c r="G1081" s="48" t="s">
-        <v>1990</v>
+      <c r="G1081" s="44" t="s">
+        <v>1992</v>
       </c>
     </row>
     <row r="1082" spans="1:7">
       <c r="A1082" s="21">
         <v>1081</v>
       </c>
-      <c r="B1082" s="21">
-        <v>494</v>
-      </c>
-      <c r="C1082" s="21" t="s">
-        <v>1673</v>
-      </c>
-      <c r="D1082" s="11" t="s">
-        <v>1991</v>
+      <c r="B1082" s="1">
+        <v>490</v>
+      </c>
+      <c r="C1082" s="10" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D1082" s="21">
+        <v>3</v>
       </c>
       <c r="E1082" s="21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F1082" s="21">
         <v>1</v>
       </c>
-      <c r="G1082" s="21" t="s">
-        <v>1992</v>
+      <c r="G1082" s="44" t="s">
+        <v>1971</v>
       </c>
     </row>
     <row r="1083" spans="1:7">
       <c r="A1083" s="21">
         <v>1082</v>
       </c>
-      <c r="B1083" s="21">
-        <v>494</v>
-      </c>
-      <c r="C1083" s="21" t="s">
-        <v>1673</v>
-      </c>
-      <c r="D1083" s="11" t="s">
-        <v>1931</v>
+      <c r="B1083" s="1">
+        <v>491</v>
+      </c>
+      <c r="C1083" s="10" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D1083" s="21">
+        <v>2</v>
       </c>
       <c r="E1083" s="21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F1083" s="21">
         <v>1</v>
       </c>
-      <c r="G1083" s="21" t="s">
-        <v>1993</v>
+      <c r="G1083" s="44" t="s">
+        <v>1991</v>
       </c>
     </row>
     <row r="1084" spans="1:7">
       <c r="A1084" s="21">
         <v>1083</v>
       </c>
-      <c r="B1084" s="21">
-        <v>494</v>
-      </c>
-      <c r="C1084" s="21" t="s">
-        <v>1673</v>
-      </c>
-      <c r="D1084" s="11" t="s">
-        <v>1753</v>
+      <c r="B1084" s="1">
+        <v>492</v>
+      </c>
+      <c r="C1084" s="10" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D1084" s="21">
+        <v>1</v>
       </c>
       <c r="E1084" s="21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F1084" s="21">
         <v>1</v>
       </c>
-      <c r="G1084" s="21" t="s">
-        <v>1994</v>
+      <c r="G1084" s="44" t="s">
+        <v>1993</v>
       </c>
     </row>
     <row r="1085" spans="1:7">
@@ -55059,22 +55071,22 @@
         <v>1084</v>
       </c>
       <c r="B1085" s="21">
-        <v>495</v>
-      </c>
-      <c r="C1085" s="21" t="s">
-        <v>1673</v>
-      </c>
-      <c r="D1085" s="11" t="s">
-        <v>1969</v>
+        <v>493</v>
+      </c>
+      <c r="C1085" s="48" t="s">
+        <v>1676</v>
+      </c>
+      <c r="D1085" s="21">
+        <v>1623081600</v>
       </c>
       <c r="E1085" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1085" s="21">
         <v>1</v>
       </c>
-      <c r="G1085" s="21" t="s">
-        <v>1995</v>
+      <c r="G1085" s="48" t="s">
+        <v>1994</v>
       </c>
     </row>
     <row r="1086" spans="1:7">
@@ -55082,16 +55094,16 @@
         <v>1085</v>
       </c>
       <c r="B1086" s="21">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C1086" s="21" t="s">
         <v>1673</v>
       </c>
       <c r="D1086" s="11" t="s">
-        <v>1897</v>
+        <v>1995</v>
       </c>
       <c r="E1086" s="21">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1086" s="21">
         <v>1</v>
@@ -55100,30 +55112,122 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="1087" customFormat="1" spans="1:9">
+    <row r="1087" spans="1:7">
       <c r="A1087" s="21">
         <v>1086</v>
       </c>
-      <c r="B1087" s="16">
+      <c r="B1087" s="21">
+        <v>494</v>
+      </c>
+      <c r="C1087" s="21" t="s">
+        <v>1673</v>
+      </c>
+      <c r="D1087" s="11" t="s">
+        <v>1931</v>
+      </c>
+      <c r="E1087" s="21">
+        <v>5</v>
+      </c>
+      <c r="F1087" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1087" s="21" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:7">
+      <c r="A1088" s="21">
+        <v>1087</v>
+      </c>
+      <c r="B1088" s="21">
+        <v>494</v>
+      </c>
+      <c r="C1088" s="21" t="s">
+        <v>1673</v>
+      </c>
+      <c r="D1088" s="11" t="s">
+        <v>1753</v>
+      </c>
+      <c r="E1088" s="21">
+        <v>5</v>
+      </c>
+      <c r="F1088" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1088" s="21" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:7">
+      <c r="A1089" s="21">
+        <v>1088</v>
+      </c>
+      <c r="B1089" s="21">
+        <v>495</v>
+      </c>
+      <c r="C1089" s="21" t="s">
+        <v>1673</v>
+      </c>
+      <c r="D1089" s="11" t="s">
+        <v>1969</v>
+      </c>
+      <c r="E1089" s="21">
+        <v>2</v>
+      </c>
+      <c r="F1089" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1089" s="21" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:7">
+      <c r="A1090" s="21">
+        <v>1089</v>
+      </c>
+      <c r="B1090" s="21">
+        <v>496</v>
+      </c>
+      <c r="C1090" s="21" t="s">
+        <v>1673</v>
+      </c>
+      <c r="D1090" s="11" t="s">
+        <v>1897</v>
+      </c>
+      <c r="E1090" s="21">
+        <v>2</v>
+      </c>
+      <c r="F1090" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1090" s="21" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="1091" customFormat="1" spans="1:9">
+      <c r="A1091" s="21">
+        <v>1090</v>
+      </c>
+      <c r="B1091" s="16">
         <v>497</v>
       </c>
-      <c r="C1087" s="16" t="s">
+      <c r="C1091" s="16" t="s">
         <v>1673</v>
       </c>
-      <c r="D1087" s="16" t="s">
+      <c r="D1091" s="16" t="s">
         <v>1751</v>
       </c>
-      <c r="E1087" s="16">
+      <c r="E1091" s="16">
         <v>5</v>
       </c>
-      <c r="F1087" s="16">
-        <v>1</v>
-      </c>
-      <c r="G1087" s="16" t="s">
+      <c r="F1091" s="16">
+        <v>1</v>
+      </c>
+      <c r="G1091" s="16" t="s">
         <v>1910</v>
       </c>
-      <c r="H1087" s="9"/>
-      <c r="I1087" s="9"/>
+      <c r="H1091" s="9"/>
+      <c r="I1091" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -55157,7 +55261,7 @@
         <v>816</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1634</v>
@@ -55172,7 +55276,7 @@
         <v>1637</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>1998</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -55186,7 +55290,7 @@
         <v>1729</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -55195,7 +55299,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>2000</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -55209,7 +55313,7 @@
         <v>1729</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -55218,7 +55322,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>2002</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -55232,7 +55336,7 @@
         <v>1729</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -55241,7 +55345,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>2004</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -55255,7 +55359,7 @@
         <v>1729</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -55264,7 +55368,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>2006</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -55278,7 +55382,7 @@
         <v>1729</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -55287,7 +55391,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>2008</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -55301,7 +55405,7 @@
         <v>1729</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -55310,7 +55414,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>2010</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -55324,7 +55428,7 @@
         <v>1729</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -55333,7 +55437,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>2012</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -55347,7 +55451,7 @@
         <v>1729</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -55356,7 +55460,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>2014</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -55370,7 +55474,7 @@
         <v>1729</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -55379,7 +55483,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>2014</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -55393,7 +55497,7 @@
         <v>1729</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -55402,7 +55506,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>2014</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -55416,7 +55520,7 @@
         <v>1729</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -55425,7 +55529,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>2018</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -55439,7 +55543,7 @@
         <v>1729</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -55448,7 +55552,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>2020</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -55462,7 +55566,7 @@
         <v>1729</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -55471,7 +55575,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>2022</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -55485,7 +55589,7 @@
         <v>1729</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>2023</v>
+        <v>2027</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -55494,7 +55598,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>2022</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -55508,7 +55612,7 @@
         <v>1729</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>2024</v>
+        <v>2028</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -55517,7 +55621,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>2025</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -55531,7 +55635,7 @@
         <v>1729</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>2026</v>
+        <v>2030</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -55540,7 +55644,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>2027</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -55548,13 +55652,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>1991</v>
+        <v>1995</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>1729</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>2028</v>
+        <v>2032</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -55563,7 +55667,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>2029</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -55577,7 +55681,7 @@
         <v>1729</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>2030</v>
+        <v>2034</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -55586,7 +55690,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>2031</v>
+        <v>2035</v>
       </c>
     </row>
   </sheetData>
@@ -55614,13 +55718,13 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="27" customHeight="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>2032</v>
+        <v>2036</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2033</v>
+        <v>2037</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2034</v>
+        <v>2038</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -55636,10 +55740,10 @@
         <v>1654</v>
       </c>
       <c r="B2" t="s">
-        <v>2035</v>
+        <v>2039</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>2036</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="3" ht="28.9" customHeight="1" spans="1:2">
@@ -55647,7 +55751,7 @@
         <v>1671</v>
       </c>
       <c r="B3" t="s">
-        <v>2037</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="4" ht="22.15" customHeight="1" spans="1:2">
@@ -55655,7 +55759,7 @@
         <v>1669</v>
       </c>
       <c r="B4" t="s">
-        <v>2038</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="5" ht="24.6" customHeight="1" spans="1:2">
@@ -55663,15 +55767,15 @@
         <v>1690</v>
       </c>
       <c r="B5" t="s">
-        <v>2039</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="6" ht="25.15" customHeight="1" spans="1:2">
       <c r="A6" t="s">
-        <v>2040</v>
+        <v>2044</v>
       </c>
       <c r="B6" t="s">
-        <v>2041</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="7" ht="104.25" customHeight="1" spans="1:2">
@@ -55679,7 +55783,7 @@
         <v>1641</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>2042</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -55687,15 +55791,15 @@
         <v>1729</v>
       </c>
       <c r="B8" t="s">
-        <v>2043</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="1:2">
       <c r="A9" s="5" t="s">
-        <v>2044</v>
+        <v>2048</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>2045</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="1:3">
@@ -55703,10 +55807,10 @@
         <v>1678</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>2046</v>
+        <v>2050</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>2047</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -55714,7 +55818,7 @@
         <v>1768</v>
       </c>
       <c r="B11" t="s">
-        <v>2048</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -55722,10 +55826,10 @@
         <v>1773</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>2049</v>
+        <v>2053</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>2050</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -55733,7 +55837,7 @@
         <v>1771</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>2051</v>
+        <v>2055</v>
       </c>
     </row>
   </sheetData>

--- a/config_6.8/permission_server_config.xlsx
+++ b/config_6.8/permission_server_config.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5495" uniqueCount="2056">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5495" uniqueCount="2055">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -8686,7 +8686,7 @@
     <t>Lv5以下才可以进入，请去高级场获取更多金币吧！</t>
   </si>
   <si>
-    <t>不是天天欢乐捕鱼</t>
+    <t>是天天欢乐捕鱼</t>
   </si>
   <si>
     <t>tag_plat_own_byam</t>
@@ -8702,9 +8702,6 @@
   </si>
   <si>
     <t>天天欢乐捕鱼没有账号</t>
-  </si>
-  <si>
-    <t>是天天欢乐捕鱼</t>
   </si>
   <si>
     <t>捕鱼奥秘cpl</t>
@@ -9027,6 +9024,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -9048,9 +9053,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9063,10 +9074,73 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9081,83 +9155,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9304,7 +9301,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9316,55 +9391,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9376,13 +9439,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9394,67 +9451,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9496,37 +9493,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9550,6 +9517,41 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -9570,22 +9572,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9595,10 +9592,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -9607,19 +9604,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -9628,112 +9625,112 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
@@ -29189,11 +29186,11 @@
   <dimension ref="A1:I1091"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E1055" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C1055" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G1074" sqref="G1074"/>
+      <selection pane="bottomRight" activeCell="F1071" sqref="F1071"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -54593,7 +54590,7 @@
         <v>1969</v>
       </c>
       <c r="E1064" s="21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1064" s="21">
         <v>1</v>
@@ -54685,7 +54682,7 @@
         <v>1969</v>
       </c>
       <c r="E1068" s="21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1068" s="21">
         <v>1</v>
@@ -54751,7 +54748,7 @@
         <v>1673</v>
       </c>
       <c r="D1071" s="3" t="s">
-        <v>1969</v>
+        <v>1897</v>
       </c>
       <c r="E1071" s="21">
         <v>2</v>
@@ -54760,7 +54757,7 @@
         <v>1</v>
       </c>
       <c r="G1071" s="21" t="s">
-        <v>1988</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="1072" spans="1:7">
@@ -54820,7 +54817,7 @@
         <v>1673</v>
       </c>
       <c r="D1074" s="3" t="s">
-        <v>1969</v>
+        <v>1897</v>
       </c>
       <c r="E1074" s="21">
         <v>2</v>
@@ -54829,7 +54826,7 @@
         <v>1</v>
       </c>
       <c r="G1074" s="21" t="s">
-        <v>1988</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="1075" spans="1:7">
@@ -54875,7 +54872,7 @@
         <v>1</v>
       </c>
       <c r="G1076" s="21" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="1077" spans="1:7">
@@ -54898,7 +54895,7 @@
         <v>2</v>
       </c>
       <c r="G1077" s="21" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="1078" spans="1:7">
@@ -54969,7 +54966,7 @@
         <v>1</v>
       </c>
       <c r="G1080" s="44" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="H1080" s="21"/>
       <c r="I1080" s="21"/>
@@ -54994,7 +54991,7 @@
         <v>1</v>
       </c>
       <c r="G1081" s="44" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="1082" spans="1:7">
@@ -55040,7 +55037,7 @@
         <v>1</v>
       </c>
       <c r="G1083" s="44" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="1084" spans="1:7">
@@ -55063,7 +55060,7 @@
         <v>1</v>
       </c>
       <c r="G1084" s="44" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="1085" spans="1:7">
@@ -55086,7 +55083,7 @@
         <v>1</v>
       </c>
       <c r="G1085" s="48" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="1086" spans="1:7">
@@ -55100,7 +55097,7 @@
         <v>1673</v>
       </c>
       <c r="D1086" s="11" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="E1086" s="21">
         <v>5</v>
@@ -55109,7 +55106,7 @@
         <v>1</v>
       </c>
       <c r="G1086" s="21" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="1087" spans="1:7">
@@ -55132,7 +55129,7 @@
         <v>1</v>
       </c>
       <c r="G1087" s="21" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="1088" spans="1:7">
@@ -55155,7 +55152,7 @@
         <v>1</v>
       </c>
       <c r="G1088" s="21" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="1089" spans="1:7">
@@ -55178,7 +55175,7 @@
         <v>1</v>
       </c>
       <c r="G1089" s="21" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="1090" spans="1:7">
@@ -55201,7 +55198,7 @@
         <v>1</v>
       </c>
       <c r="G1090" s="21" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="1091" customFormat="1" spans="1:9">
@@ -55261,7 +55258,7 @@
         <v>816</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1634</v>
@@ -55276,7 +55273,7 @@
         <v>1637</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -55290,16 +55287,16 @@
         <v>1729</v>
       </c>
       <c r="D2" s="10" t="s">
+        <v>2002</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>2003</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>2004</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -55313,16 +55310,16 @@
         <v>1729</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>2004</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>2005</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>2006</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -55336,16 +55333,16 @@
         <v>1729</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>2006</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>2007</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>2008</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -55359,16 +55356,16 @@
         <v>1729</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>2008</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>2009</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>2010</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -55382,16 +55379,16 @@
         <v>1729</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>2010</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>2011</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>2012</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -55405,16 +55402,16 @@
         <v>1729</v>
       </c>
       <c r="D7" s="10" t="s">
+        <v>2012</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>2013</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>2014</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -55428,16 +55425,16 @@
         <v>1729</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>2014</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>2015</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>2016</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -55451,16 +55448,16 @@
         <v>1729</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>2016</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>2017</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>2018</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -55474,7 +55471,7 @@
         <v>1729</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -55483,7 +55480,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -55497,7 +55494,7 @@
         <v>1729</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -55506,7 +55503,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -55520,16 +55517,16 @@
         <v>1729</v>
       </c>
       <c r="D12" s="10" t="s">
+        <v>2020</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>2021</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>2022</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -55543,16 +55540,16 @@
         <v>1729</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>2022</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>2023</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>2024</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -55566,16 +55563,16 @@
         <v>1729</v>
       </c>
       <c r="D14" s="10" t="s">
+        <v>2024</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>2025</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>2026</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -55589,7 +55586,7 @@
         <v>1729</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -55598,7 +55595,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -55612,16 +55609,16 @@
         <v>1729</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>2027</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>2028</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>2029</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -55635,16 +55632,16 @@
         <v>1729</v>
       </c>
       <c r="D17" s="10" t="s">
+        <v>2029</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>2030</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>2031</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -55652,22 +55649,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>1729</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>2031</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>2032</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>2033</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -55681,16 +55678,16 @@
         <v>1729</v>
       </c>
       <c r="D19" s="10" t="s">
+        <v>2033</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>2034</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>2035</v>
       </c>
     </row>
   </sheetData>
@@ -55718,13 +55715,13 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="27" customHeight="1" spans="1:11">
       <c r="A1" s="2" t="s">
+        <v>2035</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>2036</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>2037</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2038</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -55740,10 +55737,10 @@
         <v>1654</v>
       </c>
       <c r="B2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>2039</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2040</v>
       </c>
     </row>
     <row r="3" ht="28.9" customHeight="1" spans="1:2">
@@ -55751,7 +55748,7 @@
         <v>1671</v>
       </c>
       <c r="B3" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="4" ht="22.15" customHeight="1" spans="1:2">
@@ -55759,7 +55756,7 @@
         <v>1669</v>
       </c>
       <c r="B4" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="5" ht="24.6" customHeight="1" spans="1:2">
@@ -55767,15 +55764,15 @@
         <v>1690</v>
       </c>
       <c r="B5" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="6" ht="25.15" customHeight="1" spans="1:2">
       <c r="A6" t="s">
+        <v>2043</v>
+      </c>
+      <c r="B6" t="s">
         <v>2044</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2045</v>
       </c>
     </row>
     <row r="7" ht="104.25" customHeight="1" spans="1:2">
@@ -55783,7 +55780,7 @@
         <v>1641</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -55791,15 +55788,15 @@
         <v>1729</v>
       </c>
       <c r="B8" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="1:2">
       <c r="A9" s="5" t="s">
+        <v>2047</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>2048</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>2049</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="1:3">
@@ -55807,10 +55804,10 @@
         <v>1678</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>2049</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>2050</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>2051</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -55818,7 +55815,7 @@
         <v>1768</v>
       </c>
       <c r="B11" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -55826,10 +55823,10 @@
         <v>1773</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>2052</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>2053</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>2054</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -55837,7 +55834,7 @@
         <v>1771</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
     </row>
   </sheetData>

--- a/config_6.8/permission_server_config.xlsx
+++ b/config_6.8/permission_server_config.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5500" uniqueCount="2059">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5500" uniqueCount="2058">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -8704,9 +8704,6 @@
     <t>是IOS用户</t>
   </si>
   <si>
-    <t>tag_plat_own_tthlby</t>
-  </si>
-  <si>
     <t>天天欢乐捕鱼没有账号</t>
   </si>
   <si>
@@ -8967,9 +8964,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -9036,7 +9033,50 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9051,52 +9091,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9108,47 +9106,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9164,6 +9123,46 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -9171,17 +9170,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="48">
@@ -9313,7 +9310,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9325,43 +9364,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9373,43 +9406,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9421,37 +9430,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9464,6 +9449,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9501,32 +9498,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9546,17 +9528,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9579,11 +9561,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9598,16 +9586,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -9616,16 +9613,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -9634,118 +9631,118 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -29223,11 +29220,11 @@
   <dimension ref="A1:I1092"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E1064" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C1064" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E1092" sqref="E1092"/>
+      <selection pane="bottomRight" activeCell="D1079" sqref="D1079"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -54762,7 +54759,7 @@
         <v>1643</v>
       </c>
       <c r="D1070" s="10" t="s">
-        <v>1988</v>
+        <v>1820</v>
       </c>
       <c r="E1070" s="21">
         <v>5</v>
@@ -54771,7 +54768,7 @@
         <v>1</v>
       </c>
       <c r="G1070" s="21" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="1071" spans="1:7">
@@ -54831,7 +54828,7 @@
         <v>1643</v>
       </c>
       <c r="D1073" s="10" t="s">
-        <v>1988</v>
+        <v>1820</v>
       </c>
       <c r="E1073" s="21">
         <v>5</v>
@@ -54840,7 +54837,7 @@
         <v>1</v>
       </c>
       <c r="G1073" s="21" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="1074" spans="1:7">
@@ -54909,7 +54906,7 @@
         <v>1</v>
       </c>
       <c r="G1076" s="21" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="1077" spans="1:7">
@@ -54932,7 +54929,7 @@
         <v>2</v>
       </c>
       <c r="G1077" s="21" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="1078" spans="1:7">
@@ -55003,7 +55000,7 @@
         <v>1</v>
       </c>
       <c r="G1080" s="44" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="H1080" s="21"/>
       <c r="I1080" s="21"/>
@@ -55028,7 +55025,7 @@
         <v>1</v>
       </c>
       <c r="G1081" s="44" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="1082" spans="1:7">
@@ -55074,7 +55071,7 @@
         <v>1</v>
       </c>
       <c r="G1083" s="44" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="1084" spans="1:7">
@@ -55097,7 +55094,7 @@
         <v>1</v>
       </c>
       <c r="G1084" s="44" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="1085" spans="1:7">
@@ -55120,7 +55117,7 @@
         <v>1</v>
       </c>
       <c r="G1085" s="48" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="1086" spans="1:7">
@@ -55134,7 +55131,7 @@
         <v>1675</v>
       </c>
       <c r="D1086" s="11" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="E1086" s="21">
         <v>5</v>
@@ -55143,7 +55140,7 @@
         <v>1</v>
       </c>
       <c r="G1086" s="21" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="1087" spans="1:7">
@@ -55166,7 +55163,7 @@
         <v>1</v>
       </c>
       <c r="G1087" s="21" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="1088" spans="1:7">
@@ -55189,7 +55186,7 @@
         <v>1</v>
       </c>
       <c r="G1088" s="21" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="1089" spans="1:7">
@@ -55212,7 +55209,7 @@
         <v>1</v>
       </c>
       <c r="G1089" s="21" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="1090" spans="1:7">
@@ -55235,7 +55232,7 @@
         <v>1</v>
       </c>
       <c r="G1090" s="21" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="1091" customFormat="1" spans="1:9">
@@ -55274,16 +55271,16 @@
         <v>1731</v>
       </c>
       <c r="D1092" s="21" t="s">
+        <v>2001</v>
+      </c>
+      <c r="E1092" s="21">
+        <v>2</v>
+      </c>
+      <c r="F1092" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1092" s="21" t="s">
         <v>2002</v>
-      </c>
-      <c r="E1092" s="21">
-        <v>2</v>
-      </c>
-      <c r="F1092" s="21">
-        <v>1</v>
-      </c>
-      <c r="G1092" s="21" t="s">
-        <v>2003</v>
       </c>
       <c r="H1092" s="21"/>
       <c r="I1092" s="21"/>
@@ -55320,7 +55317,7 @@
         <v>818</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1636</v>
@@ -55335,7 +55332,7 @@
         <v>1639</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -55349,16 +55346,16 @@
         <v>1731</v>
       </c>
       <c r="D2" s="10" t="s">
+        <v>2005</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>2006</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>2007</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -55372,16 +55369,16 @@
         <v>1731</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>2007</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>2008</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>2009</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -55395,16 +55392,16 @@
         <v>1731</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>2009</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>2010</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>2011</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -55418,16 +55415,16 @@
         <v>1731</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>2011</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>2012</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>2013</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -55441,16 +55438,16 @@
         <v>1731</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>2013</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>2014</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>2015</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -55464,16 +55461,16 @@
         <v>1731</v>
       </c>
       <c r="D7" s="10" t="s">
+        <v>2015</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>2016</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>2017</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -55487,16 +55484,16 @@
         <v>1731</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>2017</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>2018</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>2019</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -55510,16 +55507,16 @@
         <v>1731</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>2019</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>2020</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>2021</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -55533,7 +55530,7 @@
         <v>1731</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -55542,7 +55539,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -55556,7 +55553,7 @@
         <v>1731</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -55565,7 +55562,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -55579,16 +55576,16 @@
         <v>1731</v>
       </c>
       <c r="D12" s="10" t="s">
+        <v>2023</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>2024</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>2025</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -55602,16 +55599,16 @@
         <v>1731</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>2025</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>2026</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>2027</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -55625,16 +55622,16 @@
         <v>1731</v>
       </c>
       <c r="D14" s="10" t="s">
+        <v>2027</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>2028</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>2029</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -55648,7 +55645,7 @@
         <v>1731</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -55657,7 +55654,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -55671,16 +55668,16 @@
         <v>1731</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>2030</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>2031</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>2032</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -55694,16 +55691,16 @@
         <v>1731</v>
       </c>
       <c r="D17" s="10" t="s">
+        <v>2032</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>2033</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>2034</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -55711,22 +55708,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>1731</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>2034</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>2035</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>2036</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -55740,16 +55737,16 @@
         <v>1731</v>
       </c>
       <c r="D19" s="10" t="s">
+        <v>2036</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>2037</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>2038</v>
       </c>
     </row>
   </sheetData>
@@ -55777,13 +55774,13 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="27" customHeight="1" spans="1:11">
       <c r="A1" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>2039</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>2040</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2041</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -55799,10 +55796,10 @@
         <v>1656</v>
       </c>
       <c r="B2" t="s">
+        <v>2041</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>2042</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2043</v>
       </c>
     </row>
     <row r="3" ht="28.9" customHeight="1" spans="1:2">
@@ -55810,7 +55807,7 @@
         <v>1673</v>
       </c>
       <c r="B3" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="4" ht="22.15" customHeight="1" spans="1:2">
@@ -55818,7 +55815,7 @@
         <v>1671</v>
       </c>
       <c r="B4" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="5" ht="24.6" customHeight="1" spans="1:2">
@@ -55826,15 +55823,15 @@
         <v>1692</v>
       </c>
       <c r="B5" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="6" ht="25.15" customHeight="1" spans="1:2">
       <c r="A6" t="s">
+        <v>2046</v>
+      </c>
+      <c r="B6" t="s">
         <v>2047</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2048</v>
       </c>
     </row>
     <row r="7" ht="104.25" customHeight="1" spans="1:2">
@@ -55842,7 +55839,7 @@
         <v>1643</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -55850,15 +55847,15 @@
         <v>1731</v>
       </c>
       <c r="B8" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="1:2">
       <c r="A9" s="5" t="s">
+        <v>2050</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>2051</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>2052</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="1:3">
@@ -55866,10 +55863,10 @@
         <v>1680</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>2052</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>2053</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>2054</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -55877,7 +55874,7 @@
         <v>1770</v>
       </c>
       <c r="B11" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -55885,10 +55882,10 @@
         <v>1775</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>2055</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>2056</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>2057</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -55896,7 +55893,7 @@
         <v>1773</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
     </row>
   </sheetData>
